--- a/Web_data/naverfinance.xlsx
+++ b/Web_data/naverfinance.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,371.00</t>
+          <t>1,372.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,371.00</t>
+          <t>1,372.50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,371.00</t>
+          <t>1,372.50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1,371.00</t>
+          <t>1,372.50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
